--- a/target/classes/examples/烧烤餐饮.xlsx
+++ b/target/classes/examples/烧烤餐饮.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>河东区</t>
   </si>
@@ -77,27 +77,6 @@
     <t>务华餐厅</t>
   </si>
   <si>
-    <t>八珍脱骨香熟食城</t>
-  </si>
-  <si>
-    <t>伊利冰淇淋海之龙冷食配送中心</t>
-  </si>
-  <si>
-    <t>长江饭店(林亭口镇糙甸中学东南)</t>
-  </si>
-  <si>
-    <t>长路饭庄</t>
-  </si>
-  <si>
-    <t>长庆斋饭庄</t>
-  </si>
-  <si>
-    <t>长生乐西饼屋</t>
-  </si>
-  <si>
-    <t>郑州羊肉烩面</t>
-  </si>
-  <si>
     <t>枫林路6号附近</t>
   </si>
   <si>
@@ -107,33 +86,9 @@
     <t>津京公路6号</t>
   </si>
   <si>
-    <t>枫林路15号</t>
-  </si>
-  <si>
-    <t>榆林路11号</t>
-  </si>
-  <si>
-    <t>天津近郊宝坻区林黑路</t>
-  </si>
-  <si>
-    <t>天津近郊宁河县津榆公路</t>
-  </si>
-  <si>
-    <t>天津近郊静海县京福公路</t>
-  </si>
-  <si>
-    <t>程林</t>
-  </si>
-  <si>
-    <t>建设南路69号</t>
-  </si>
-  <si>
     <t>餐馆名称</t>
   </si>
   <si>
-    <t>TJ-SCC</t>
-  </si>
-  <si>
     <t>区县</t>
   </si>
   <si>
@@ -177,36 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天山区</t>
-  </si>
-  <si>
-    <t>沙依巴克区</t>
-  </si>
-  <si>
-    <t>新市区</t>
-  </si>
-  <si>
-    <t>水磨沟区</t>
-  </si>
-  <si>
-    <t>头屯河区</t>
-  </si>
-  <si>
-    <t>达坂城区</t>
-  </si>
-  <si>
-    <t>米东区</t>
-  </si>
-  <si>
-    <t>乌鲁木齐县</t>
-  </si>
-  <si>
-    <t>克拉玛依市</t>
-  </si>
-  <si>
-    <t>独山子区</t>
-  </si>
-  <si>
     <t>木炭消耗量(kg/d)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,16 +142,53 @@
   <si>
     <t>日均经营时长(h)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,35 +219,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,16 +255,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -390,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,488 +567,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="4" customWidth="1"/>
-    <col min="14" max="15" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="19.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="X1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>2001300000</v>
+      </c>
+      <c r="B2" s="1">
         <v>2013</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>650102</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
         <v>117.262342</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>39.066327999999999</v>
       </c>
-      <c r="H2" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
+      <c r="H2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O2" s="1">
         <v>45</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>12</v>
       </c>
       <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>2001300000</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
+      <c r="B3" s="1">
         <v>2013</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>650103</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
         <v>117.26234700000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>39.066206999999999</v>
       </c>
-      <c r="H3" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="H3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O3" s="1">
         <v>45</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <v>12</v>
       </c>
       <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2001300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
+      <c r="B4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>650104</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
         <v>116.930385</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>39.671790000000001</v>
       </c>
-      <c r="H4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2">
+      <c r="H4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O4" s="1">
         <v>45</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>12</v>
       </c>
       <c r="Q4" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>650105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>117.26283100000001</v>
-      </c>
-      <c r="G5">
-        <v>39.066276999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>45</v>
-      </c>
-      <c r="P5" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>2013</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>650106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>117.267808</v>
-      </c>
-      <c r="G6">
-        <v>39.061870999999996</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>45</v>
-      </c>
-      <c r="P6" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>2013</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>650107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>117.475303</v>
-      </c>
-      <c r="G7">
-        <v>39.619329</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>45</v>
-      </c>
-      <c r="P7" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>650109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>117.47698200000001</v>
-      </c>
-      <c r="G8">
-        <v>39.349820000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>45</v>
-      </c>
-      <c r="P8" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>650121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>116.93616900000001</v>
-      </c>
-      <c r="G9">
-        <v>38.844245999999998</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
-        <v>45</v>
-      </c>
-      <c r="P9" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>650200</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>117.286826</v>
-      </c>
-      <c r="G10">
-        <v>39.129809999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>45</v>
-      </c>
-      <c r="P10" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2001300000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>650202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>117.827524</v>
-      </c>
-      <c r="G11">
-        <v>39.245176999999998</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2">
-        <v>45</v>
-      </c>
-      <c r="P11" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2001300000</v>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1133,20 +911,20 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>120101</v>
       </c>
@@ -1154,7 +932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>120102</v>
       </c>
@@ -1162,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>120103</v>
       </c>
@@ -1170,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>120104</v>
       </c>
@@ -1178,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>120105</v>
       </c>
@@ -1186,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>120106</v>
       </c>
@@ -1194,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>120110</v>
       </c>
@@ -1202,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>120111</v>
       </c>
@@ -1210,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>120112</v>
       </c>
@@ -1218,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>120113</v>
       </c>
@@ -1226,7 +1004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>120114</v>
       </c>
@@ -1234,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>120115</v>
       </c>
@@ -1242,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>120116</v>
       </c>
@@ -1250,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>120221</v>
       </c>
@@ -1258,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>120223</v>
       </c>
@@ -1266,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>120225</v>
       </c>

--- a/target/classes/examples/烧烤餐饮.xlsx
+++ b/target/classes/examples/烧烤餐饮.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_6EB73507A79A08E783095BD3C60B547D89C2854E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD1101EC-68C9-4170-8416-747510824E1A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>河东区</t>
   </si>
@@ -125,10 +126,6 @@
   </si>
   <si>
     <t>其他消耗量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他消耗量单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,13 +179,27 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +236,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,17 +274,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 9" xfId="3"/>
-    <cellStyle name="常规 9 2 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 9" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 9 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -323,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +381,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,31 +625,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.47265625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="19.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5234375" customWidth="1"/>
+    <col min="10" max="10" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="19.3671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
@@ -601,71 +662,74 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2001300000</v>
       </c>
@@ -678,20 +742,20 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>117.262342</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>39.066327999999999</v>
       </c>
-      <c r="H2" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1600</v>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J2" s="1">
         <v>1600</v>
@@ -709,14 +773,14 @@
         <v>1600</v>
       </c>
       <c r="O2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="P2" s="1">
         <v>45</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>12</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
       <c r="R2" s="1">
         <v>0</v>
       </c>
@@ -741,8 +805,11 @@
       <c r="Y2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2001300000</v>
       </c>
@@ -755,20 +822,20 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>117.26234700000001</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>39.066206999999999</v>
       </c>
-      <c r="H3" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1600</v>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J3" s="1">
         <v>1600</v>
@@ -786,14 +853,14 @@
         <v>1600</v>
       </c>
       <c r="O3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="P3" s="1">
         <v>45</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>12</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
       <c r="R3" s="1">
         <v>0</v>
       </c>
@@ -818,8 +885,11 @@
       <c r="Y3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2001300000</v>
       </c>
@@ -832,20 +902,20 @@
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>116.930385</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>39.671790000000001</v>
       </c>
-      <c r="H4" s="1">
-        <v>1600</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1600</v>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="J4" s="1">
         <v>1600</v>
@@ -863,14 +933,14 @@
         <v>1600</v>
       </c>
       <c r="O4" s="1">
+        <v>1600</v>
+      </c>
+      <c r="P4" s="1">
         <v>45</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>12</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
       <c r="R4" s="1">
         <v>0</v>
       </c>
@@ -893,6 +963,9 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -904,19 +977,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -924,7 +997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>120101</v>
       </c>
@@ -932,7 +1005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>120102</v>
       </c>
@@ -940,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>120103</v>
       </c>
@@ -948,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>120104</v>
       </c>
@@ -956,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>120105</v>
       </c>
@@ -964,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>120106</v>
       </c>
@@ -972,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>120110</v>
       </c>
@@ -980,7 +1053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>120111</v>
       </c>
@@ -988,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>120112</v>
       </c>
@@ -996,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>120113</v>
       </c>
@@ -1004,7 +1077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>120114</v>
       </c>
@@ -1012,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>120115</v>
       </c>
@@ -1020,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>120116</v>
       </c>
@@ -1028,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>120221</v>
       </c>
@@ -1036,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>120223</v>
       </c>
@@ -1044,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>120225</v>
       </c>

--- a/target/classes/examples/烧烤餐饮.xlsx
+++ b/target/classes/examples/烧烤餐饮.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_6EB73507A79A08E783095BD3C60B547D89C2854E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD1101EC-68C9-4170-8416-747510824E1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1E1148-B263-4B7B-B784-2006BFA8A737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>区县编码</t>
   </si>
   <si>
-    <t>惠记烧鸡</t>
-  </si>
-  <si>
     <t>江南大包</t>
   </si>
   <si>
@@ -192,6 +189,10 @@
   </si>
   <si>
     <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠记烧饿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,125 +629,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5234375" customWidth="1"/>
-    <col min="10" max="10" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="19.3671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="19.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>2001300000</v>
       </c>
       <c r="B2" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C2" s="1">
-        <v>650102</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>117.262342</v>
@@ -755,7 +756,7 @@
         <v>39.066327999999999</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1">
         <v>1600</v>
@@ -809,24 +810,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2001300000</v>
       </c>
       <c r="B3" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C3" s="1">
-        <v>650103</v>
+        <v>210102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>117.26234700000001</v>
@@ -835,7 +836,7 @@
         <v>39.066206999999999</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1">
         <v>1600</v>
@@ -889,24 +890,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2001300000</v>
       </c>
       <c r="B4" s="1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="C4" s="1">
-        <v>650104</v>
+        <v>210103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>116.930385</v>
@@ -915,7 +916,7 @@
         <v>39.671790000000001</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1">
         <v>1600</v>
@@ -984,20 +985,20 @@
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>120101</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>120102</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>120103</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>120104</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>120105</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>120106</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>120110</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>120111</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>120112</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>120113</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>120114</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>120115</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>120116</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>120221</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>120223</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>120225</v>
       </c>
